--- a/Output_actual_Q2.xlsx
+++ b/Output_actual_Q2.xlsx
@@ -28,10 +28,10 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>No of Outsourced App</t>
-  </si>
-  <si>
-    <t>No of FTE Processed App</t>
+    <t>No of Outsource App</t>
+  </si>
+  <si>
+    <t>No of FTE processed App</t>
   </si>
   <si>
     <t>Estimated Cost</t>
@@ -507,7 +507,7 @@
         <v>5239</v>
       </c>
       <c r="H2">
-        <v>808641.98</v>
+        <v>808641.97530864</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>4877</v>
       </c>
       <c r="H3">
-        <v>802302.63</v>
+        <v>802302.631578945</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>5942</v>
       </c>
       <c r="H4">
-        <v>990333.33</v>
+        <v>990333.333333335</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>1991</v>
       </c>
       <c r="H6">
-        <v>319230.77</v>
+        <v>319230.769230769</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>2275</v>
       </c>
       <c r="H7">
-        <v>389554.79</v>
+        <v>389554.794520548</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>3734</v>
       </c>
       <c r="H8">
-        <v>974397.0600000001</v>
+        <v>974397.05882353</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -752,7 +752,7 @@
         <v>3371</v>
       </c>
       <c r="H9">
-        <v>554440.79</v>
+        <v>554440.7894736851</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>3759</v>
       </c>
       <c r="H10">
-        <v>580092.59</v>
+        <v>580092.592592595</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>3529</v>
       </c>
       <c r="H11">
-        <v>604280.8199999999</v>
+        <v>604280.82191781</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>2998</v>
       </c>
       <c r="H12">
-        <v>782586.76</v>
+        <v>782586.76470588</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -892,7 +892,7 @@
         <v>3628</v>
       </c>
       <c r="H13">
-        <v>977604.62</v>
+        <v>977604.615384615</v>
       </c>
       <c r="I13">
         <v>29.98</v>
@@ -927,7 +927,7 @@
         <v>4927</v>
       </c>
       <c r="H14">
-        <v>696977.88</v>
+        <v>696977.8806584367</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>1577</v>
       </c>
       <c r="H15">
-        <v>395410.42</v>
+        <v>395410.4166666666</v>
       </c>
       <c r="I15">
         <v>39.99</v>
@@ -997,7 +997,7 @@
         <v>1785</v>
       </c>
       <c r="H16">
-        <v>451058.33</v>
+        <v>451058.3333333333</v>
       </c>
       <c r="I16">
         <v>39.98</v>
@@ -1032,7 +1032,7 @@
         <v>2338</v>
       </c>
       <c r="H17">
-        <v>334869.79</v>
+        <v>334869.7916666666</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>4020</v>
       </c>
       <c r="H18">
-        <v>590544.87</v>
+        <v>590544.8717948725</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>1888</v>
       </c>
       <c r="H19">
-        <v>485204</v>
+        <v>485203.9954337899</v>
       </c>
       <c r="I19">
         <v>39.97</v>
@@ -1137,7 +1137,7 @@
         <v>2563</v>
       </c>
       <c r="H20">
-        <v>688078.0600000001</v>
+        <v>688078.0637254901</v>
       </c>
       <c r="I20">
         <v>39.99</v>
@@ -1172,7 +1172,7 @@
         <v>1572</v>
       </c>
       <c r="H21">
-        <v>394206.58</v>
+        <v>394206.5789473685</v>
       </c>
       <c r="I21">
         <v>40</v>
@@ -1207,7 +1207,7 @@
         <v>4517</v>
       </c>
       <c r="H22">
-        <v>638978.91</v>
+        <v>638978.9094650224</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>2492</v>
       </c>
       <c r="H23">
-        <v>640609.9300000001</v>
+        <v>640609.9315068491</v>
       </c>
       <c r="I23">
         <v>40</v>
@@ -1277,7 +1277,7 @@
         <v>1883</v>
       </c>
       <c r="H24">
-        <v>505394.73</v>
+        <v>505394.7303921569</v>
       </c>
       <c r="I24">
         <v>39.97</v>
@@ -1312,7 +1312,7 @@
         <v>2537</v>
       </c>
       <c r="H25">
-        <v>700727.5600000001</v>
+        <v>700727.5641025642</v>
       </c>
       <c r="I25">
         <v>39.98</v>
@@ -1347,7 +1347,7 @@
         <v>1162</v>
       </c>
       <c r="H26">
-        <v>158400.21</v>
+        <v>158400.2057613169</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1967</v>
       </c>
       <c r="H27">
-        <v>285775.77</v>
+        <v>285775.7675438598</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>1898</v>
       </c>
       <c r="H28">
-        <v>279427.78</v>
+        <v>279427.7777777779</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>2261</v>
       </c>
       <c r="H29">
-        <v>312065.1</v>
+        <v>312065.1041666667</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>2030</v>
       </c>
       <c r="H30">
-        <v>287366.45</v>
+        <v>287366.4529914532</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1642</v>
       </c>
       <c r="H31">
-        <v>248361.87</v>
+        <v>248361.8721461189</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>2495</v>
       </c>
       <c r="H33">
-        <v>362631.58</v>
+        <v>362631.5789473683</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>922</v>
       </c>
       <c r="H34">
-        <v>125684.16</v>
+        <v>125684.1563786009</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>2421</v>
       </c>
       <c r="H35">
-        <v>366190.07</v>
+        <v>366190.0684931508</v>
       </c>
       <c r="I35">
         <v>0</v>

--- a/Output_actual_Q2.xlsx
+++ b/Output_actual_Q2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>State</t>
   </si>
@@ -22,25 +22,28 @@
     <t>Month</t>
   </si>
   <si>
+    <t>Demand</t>
+  </si>
+  <si>
     <t>No of FTE</t>
   </si>
   <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>No of Outsource App</t>
-  </si>
-  <si>
-    <t>No of FTE processed App</t>
+    <t>No of Outsource</t>
+  </si>
+  <si>
+    <t>No of FTE Processed Applications</t>
+  </si>
+  <si>
+    <t>Percent FTE Applications</t>
+  </si>
+  <si>
+    <t>Percent Outsourced Applications</t>
   </si>
   <si>
     <t>Estimated Cost</t>
   </si>
   <si>
-    <t>Percent Outsourced App</t>
-  </si>
-  <si>
-    <t>Average Cost Per Application</t>
+    <t>Average Cost per Application</t>
   </si>
   <si>
     <t>Estimated Cost in mn $</t>
@@ -446,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,22 +486,25 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
+        <v>5240</v>
+      </c>
+      <c r="E2">
         <v>161.7</v>
-      </c>
-      <c r="E2">
-        <v>5240</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -507,33 +513,36 @@
         <v>5239</v>
       </c>
       <c r="H2">
+        <v>3.09</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>808641.97530864</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="K2">
         <v>154.32</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
+        <v>4878</v>
+      </c>
+      <c r="E3">
         <v>160.5</v>
-      </c>
-      <c r="E3">
-        <v>4878</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -542,33 +551,36 @@
         <v>4877</v>
       </c>
       <c r="H3">
+        <v>3.29</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>802302.631578945</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="K3">
         <v>164.47</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
+        <v>5942</v>
+      </c>
+      <c r="E4">
         <v>198.1</v>
-      </c>
-      <c r="E4">
-        <v>5942</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -577,33 +589,36 @@
         <v>5942</v>
       </c>
       <c r="H4">
+        <v>3.33</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>990333.333333335</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
         <v>166.67</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
+        <v>2297</v>
+      </c>
+      <c r="E5">
         <v>71.8</v>
-      </c>
-      <c r="E5">
-        <v>2297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -612,33 +627,36 @@
         <v>2297</v>
       </c>
       <c r="H5">
+        <v>3.12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>358906.25</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="K5">
         <v>156.25</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
+        <v>1992</v>
+      </c>
+      <c r="E6">
         <v>63.8</v>
-      </c>
-      <c r="E6">
-        <v>1992</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -647,33 +665,36 @@
         <v>1991</v>
       </c>
       <c r="H6">
+        <v>3.21</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>319230.769230769</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
         <v>160.26</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
+        <v>2275</v>
+      </c>
+      <c r="E7">
         <v>77.90000000000001</v>
-      </c>
-      <c r="E7">
-        <v>2275</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -682,33 +703,36 @@
         <v>2275</v>
       </c>
       <c r="H7">
+        <v>3.42</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>389554.794520548</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="K7">
         <v>171.23</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
+        <v>5334</v>
+      </c>
+      <c r="E8">
         <v>137.3</v>
-      </c>
-      <c r="E8">
-        <v>5334</v>
       </c>
       <c r="F8">
         <v>1600</v>
@@ -717,33 +741,36 @@
         <v>3734</v>
       </c>
       <c r="H8">
-        <v>974397.05882353</v>
+        <v>2.57</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="J8">
+        <v>974397.05882353</v>
+      </c>
+      <c r="K8">
         <v>182.68</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
+        <v>3371</v>
+      </c>
+      <c r="E9">
         <v>110.9</v>
-      </c>
-      <c r="E9">
-        <v>3371</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -752,33 +779,36 @@
         <v>3371</v>
       </c>
       <c r="H9">
+        <v>3.29</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>554440.7894736851</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
         <v>164.47</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
+        <v>3759</v>
+      </c>
+      <c r="E10">
         <v>116</v>
-      </c>
-      <c r="E10">
-        <v>3759</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -787,33 +817,36 @@
         <v>3759</v>
       </c>
       <c r="H10">
+        <v>3.09</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>580092.592592595</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
         <v>154.32</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
+        <v>3529</v>
+      </c>
+      <c r="E11">
         <v>120.9</v>
-      </c>
-      <c r="E11">
-        <v>3529</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -822,33 +855,36 @@
         <v>3529</v>
       </c>
       <c r="H11">
+        <v>3.42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>604280.82191781</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="K11">
         <v>171.23</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
+        <v>4284</v>
+      </c>
+      <c r="E12">
         <v>110.3</v>
-      </c>
-      <c r="E12">
-        <v>4284</v>
       </c>
       <c r="F12">
         <v>1285</v>
@@ -857,33 +893,36 @@
         <v>2998</v>
       </c>
       <c r="H12">
-        <v>782586.76470588</v>
+        <v>2.57</v>
       </c>
       <c r="I12">
         <v>30</v>
       </c>
       <c r="J12">
+        <v>782586.76470588</v>
+      </c>
+      <c r="K12">
         <v>182.68</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13">
+        <v>5183</v>
+      </c>
+      <c r="E13">
         <v>139.6</v>
-      </c>
-      <c r="E13">
-        <v>5183</v>
       </c>
       <c r="F13">
         <v>1554</v>
@@ -892,33 +931,36 @@
         <v>3628</v>
       </c>
       <c r="H13">
-        <v>977604.615384615</v>
+        <v>2.69</v>
       </c>
       <c r="I13">
         <v>29.98</v>
       </c>
       <c r="J13">
+        <v>977604.615384615</v>
+      </c>
+      <c r="K13">
         <v>188.62</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
+        <v>4927</v>
+      </c>
+      <c r="E14">
         <v>152.1</v>
-      </c>
-      <c r="E14">
-        <v>4927</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -927,33 +969,36 @@
         <v>4927</v>
       </c>
       <c r="H14">
+        <v>3.09</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>696977.8806584367</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
+      <c r="K14">
         <v>141.46</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
+        <v>2628</v>
+      </c>
+      <c r="E15">
         <v>51.9</v>
-      </c>
-      <c r="E15">
-        <v>2628</v>
       </c>
       <c r="F15">
         <v>1051</v>
@@ -962,33 +1007,36 @@
         <v>1577</v>
       </c>
       <c r="H15">
-        <v>395410.4166666666</v>
+        <v>1.97</v>
       </c>
       <c r="I15">
         <v>39.99</v>
       </c>
       <c r="J15">
+        <v>395410.4166666666</v>
+      </c>
+      <c r="K15">
         <v>150.46</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
+        <v>2974</v>
+      </c>
+      <c r="E16">
         <v>59.5</v>
-      </c>
-      <c r="E16">
-        <v>2974</v>
       </c>
       <c r="F16">
         <v>1189</v>
@@ -997,33 +1045,36 @@
         <v>1785</v>
       </c>
       <c r="H16">
-        <v>451058.3333333333</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>39.98</v>
       </c>
       <c r="J16">
+        <v>451058.3333333333</v>
+      </c>
+      <c r="K16">
         <v>151.67</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
+        <v>2338</v>
+      </c>
+      <c r="E17">
         <v>73.09999999999999</v>
-      </c>
-      <c r="E17">
-        <v>2338</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1032,33 +1083,36 @@
         <v>2338</v>
       </c>
       <c r="H17">
+        <v>3.12</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>334869.7916666666</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="K17">
         <v>143.23</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
+        <v>4020</v>
+      </c>
+      <c r="E18">
         <v>128.8</v>
-      </c>
-      <c r="E18">
-        <v>4020</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1067,33 +1121,36 @@
         <v>4020</v>
       </c>
       <c r="H18">
+        <v>3.21</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>590544.8717948725</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="K18">
         <v>146.9</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
+        <v>3147</v>
+      </c>
+      <c r="E19">
         <v>64.7</v>
-      </c>
-      <c r="E19">
-        <v>3147</v>
       </c>
       <c r="F19">
         <v>1258</v>
@@ -1102,33 +1159,36 @@
         <v>1888</v>
       </c>
       <c r="H19">
-        <v>485203.9954337899</v>
+        <v>2.06</v>
       </c>
       <c r="I19">
         <v>39.97</v>
       </c>
       <c r="J19">
+        <v>485203.9954337899</v>
+      </c>
+      <c r="K19">
         <v>154.18</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
+        <v>4271</v>
+      </c>
+      <c r="E20">
         <v>94.2</v>
-      </c>
-      <c r="E20">
-        <v>4271</v>
       </c>
       <c r="F20">
         <v>1708</v>
@@ -1137,33 +1197,36 @@
         <v>2563</v>
       </c>
       <c r="H20">
-        <v>688078.0637254901</v>
+        <v>2.21</v>
       </c>
       <c r="I20">
         <v>39.99</v>
       </c>
       <c r="J20">
+        <v>688078.0637254901</v>
+      </c>
+      <c r="K20">
         <v>161.1</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
+        <v>2620</v>
+      </c>
+      <c r="E21">
         <v>51.7</v>
-      </c>
-      <c r="E21">
-        <v>2620</v>
       </c>
       <c r="F21">
         <v>1048</v>
@@ -1172,33 +1235,36 @@
         <v>1572</v>
       </c>
       <c r="H21">
-        <v>394206.5789473685</v>
+        <v>1.97</v>
       </c>
       <c r="I21">
         <v>40</v>
       </c>
       <c r="J21">
+        <v>394206.5789473685</v>
+      </c>
+      <c r="K21">
         <v>150.46</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
+        <v>4517</v>
+      </c>
+      <c r="E22">
         <v>139.4</v>
-      </c>
-      <c r="E22">
-        <v>4517</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1207,33 +1273,36 @@
         <v>4517</v>
       </c>
       <c r="H22">
+        <v>3.09</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>638978.9094650224</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="K22">
         <v>141.46</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23">
+        <v>4155</v>
+      </c>
+      <c r="E23">
         <v>85.40000000000001</v>
-      </c>
-      <c r="E23">
-        <v>4155</v>
       </c>
       <c r="F23">
         <v>1662</v>
@@ -1242,33 +1311,36 @@
         <v>2492</v>
       </c>
       <c r="H23">
-        <v>640609.9315068491</v>
+        <v>2.05</v>
       </c>
       <c r="I23">
         <v>40</v>
       </c>
       <c r="J23">
+        <v>640609.9315068491</v>
+      </c>
+      <c r="K23">
         <v>154.18</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
+        <v>3137</v>
+      </c>
+      <c r="E24">
         <v>69.2</v>
-      </c>
-      <c r="E24">
-        <v>3137</v>
       </c>
       <c r="F24">
         <v>1254</v>
@@ -1277,33 +1349,36 @@
         <v>1883</v>
       </c>
       <c r="H24">
-        <v>505394.7303921569</v>
+        <v>2.21</v>
       </c>
       <c r="I24">
         <v>39.97</v>
       </c>
       <c r="J24">
+        <v>505394.7303921569</v>
+      </c>
+      <c r="K24">
         <v>161.11</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25">
+        <v>4227</v>
+      </c>
+      <c r="E25">
         <v>97.59999999999999</v>
-      </c>
-      <c r="E25">
-        <v>4227</v>
       </c>
       <c r="F25">
         <v>1690</v>
@@ -1312,33 +1387,36 @@
         <v>2537</v>
       </c>
       <c r="H25">
-        <v>700727.5641025642</v>
+        <v>2.31</v>
       </c>
       <c r="I25">
         <v>39.98</v>
       </c>
       <c r="J25">
+        <v>700727.5641025642</v>
+      </c>
+      <c r="K25">
         <v>165.77</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
+        <v>1162</v>
+      </c>
+      <c r="E26">
         <v>35.9</v>
-      </c>
-      <c r="E26">
-        <v>1162</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1347,33 +1425,36 @@
         <v>1162</v>
       </c>
       <c r="H26">
+        <v>3.09</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>158400.2057613169</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="K26">
         <v>136.32</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
+        <v>1967</v>
+      </c>
+      <c r="E27">
         <v>64.7</v>
-      </c>
-      <c r="E27">
-        <v>1967</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1382,33 +1463,36 @@
         <v>1967</v>
       </c>
       <c r="H27">
+        <v>3.29</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>285775.7675438598</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="K27">
         <v>145.29</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
+        <v>1898</v>
+      </c>
+      <c r="E28">
         <v>63.3</v>
-      </c>
-      <c r="E28">
-        <v>1898</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1417,33 +1501,36 @@
         <v>1898</v>
       </c>
       <c r="H28">
+        <v>3.33</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>279427.7777777779</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="K28">
         <v>147.22</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29">
+        <v>2261</v>
+      </c>
+      <c r="E29">
         <v>70.7</v>
-      </c>
-      <c r="E29">
-        <v>2261</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1452,33 +1539,36 @@
         <v>2261</v>
       </c>
       <c r="H29">
+        <v>3.12</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>312065.1041666667</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="K29">
         <v>138.02</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
+        <v>2030</v>
+      </c>
+      <c r="E30">
         <v>65.09999999999999</v>
-      </c>
-      <c r="E30">
-        <v>2030</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1487,33 +1577,36 @@
         <v>2030</v>
       </c>
       <c r="H30">
+        <v>3.21</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>287366.4529914532</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="K30">
         <v>141.56</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
+        <v>1642</v>
+      </c>
+      <c r="E31">
         <v>56.2</v>
-      </c>
-      <c r="E31">
-        <v>1642</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1522,33 +1615,36 @@
         <v>1642</v>
       </c>
       <c r="H31">
+        <v>3.42</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>248361.8721461189</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="K31">
         <v>151.26</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2489</v>
       </c>
       <c r="E32">
-        <v>2489</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>2489</v>
@@ -1557,33 +1653,36 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>398240</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
+        <v>398240</v>
+      </c>
+      <c r="K32">
         <v>160</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33">
+        <v>2496</v>
+      </c>
+      <c r="E33">
         <v>82.09999999999999</v>
-      </c>
-      <c r="E33">
-        <v>2496</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1592,33 +1691,36 @@
         <v>2495</v>
       </c>
       <c r="H33">
+        <v>3.29</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>362631.5789473683</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="K33">
         <v>145.29</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34">
+        <v>922</v>
+      </c>
+      <c r="E34">
         <v>28.5</v>
-      </c>
-      <c r="E34">
-        <v>922</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1627,33 +1729,36 @@
         <v>922</v>
       </c>
       <c r="H34">
+        <v>3.09</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>125684.1563786009</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="K34">
         <v>136.32</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35">
+        <v>2421</v>
+      </c>
+      <c r="E35">
         <v>82.90000000000001</v>
-      </c>
-      <c r="E35">
-        <v>2421</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1662,33 +1767,36 @@
         <v>2421</v>
       </c>
       <c r="H35">
+        <v>3.42</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>366190.0684931508</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="K35">
         <v>151.26</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="E36">
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>963</v>
@@ -1697,33 +1805,36 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>154080</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
+        <v>154080</v>
+      </c>
+      <c r="K36">
         <v>160</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="E37">
-        <v>1998</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1998</v>
@@ -1732,15 +1843,18 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>319680</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
+        <v>319680</v>
+      </c>
+      <c r="K37">
         <v>160</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.3</v>
       </c>
     </row>
